--- a/2° termo/sprint 1 BD/exercicios/1.2 exercicio-locadora/exercicio1.2.Olivia.xlsx
+++ b/2° termo/sprint 1 BD/exercicios/1.2 exercicio-locadora/exercicio1.2.Olivia.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A7C32F-2BBC-4C3D-8AEB-1B06983E42A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\senai-sprint1-BD-main\senai-sprint1-BD\2° termo\sprint 1 BD\exercicios\1.2 exercicio-locadora\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686BAE1-1A3C-4494-8A1B-0BD31D51BCDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Empresa</t>
   </si>
@@ -140,12 +134,6 @@
   </si>
   <si>
     <t>333.111.222.44</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>444.111.222.33</t>
   </si>
   <si>
     <t>Valeria</t>
@@ -158,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,61 +285,61 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,7 +367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,384 +663,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>43965</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>43971</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="9">
-        <v>2</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
         <v>5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>43966</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="7">
         <v>43972</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="E6" s="5">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="9">
-        <v>2</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
         <v>43966</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="7">
         <v>43971</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="E7" s="5">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <v>5</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <v>43967</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="7">
         <v>43973</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="E8" s="5">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>3</v>
       </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>43968</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="7">
         <v>43974</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="18"/>
+      <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="19">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="13">
-        <v>2</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="19">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
         <v>4</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="I16" s="13">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I16" s="9">
         <v>4</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11">
-      <c r="I17" s="13">
-        <v>5</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/2° termo/sprint 1 BD/exercicios/1.2 exercicio-locadora/exercicio1.2.Olivia.xlsx
+++ b/2° termo/sprint 1 BD/exercicios/1.2 exercicio-locadora/exercicio1.2.Olivia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\senai-sprint1-BD-main\senai-sprint1-BD\2° termo\sprint 1 BD\exercicios\1.2 exercicio-locadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\senai-sprint1-BD\senai-sprint1-BD\2° termo\sprint 1 BD\exercicios\1.2 exercicio-locadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686BAE1-1A3C-4494-8A1B-0BD31D51BCDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B14E4-0534-4A63-85DE-CDAECD68AA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +340,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,21 +880,11 @@
       <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>43968</v>
-      </c>
-      <c r="N8" s="7">
-        <v>43974</v>
-      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
